--- a/DoE/DoE - TCC v3.xlsx
+++ b/DoE/DoE - TCC v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://centralesupelec-my.sharepoint.com/personal/yuichi_tokumoto_student-cs_fr/Documents/USP/TCC/Code/tcc_model/SELSP_simOpt/DoE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="14_{BE6FF1C8-8357-0342-8024-DD82E45DB8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CA3B036-058B-5A40-AA62-782863369FCE}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="14_{BE6FF1C8-8357-0342-8024-DD82E45DB8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ECF9838-7020-E946-B4EE-29623D50E7C6}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="0" windowWidth="25360" windowHeight="18000" activeTab="2" xr2:uid="{CC62E9E0-8C68-8E4C-8F69-EEE9016F081D}"/>
+    <workbookView xWindow="3440" yWindow="0" windowWidth="25360" windowHeight="18000" activeTab="1" xr2:uid="{CC62E9E0-8C68-8E4C-8F69-EEE9016F081D}"/>
   </bookViews>
   <sheets>
     <sheet name="Variáveis" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="63">
   <si>
     <t>Premissas do Modelo</t>
   </si>
@@ -227,9 +227,6 @@
   </si>
   <si>
     <t>R$/un/dia</t>
-  </si>
-  <si>
-    <t>80%%</t>
   </si>
 </sst>
 </file>
@@ -480,6 +477,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -782,7 +783,7 @@
   <dimension ref="B2:L18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="D8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1279,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF39DBB-A739-5D48-810A-D71B7B4DA503}">
   <dimension ref="D3:P25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1403,8 +1404,8 @@
       <c r="L8" s="13">
         <v>0.7</v>
       </c>
-      <c r="M8" s="13" t="s">
-        <v>63</v>
+      <c r="M8" s="13">
+        <v>0.8</v>
       </c>
       <c r="N8" s="13">
         <v>0.9</v>
@@ -1546,7 +1547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56037AD5-F184-5C4A-9E5F-27DB4DC80428}">
   <dimension ref="A1:G973"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
